--- a/data/trans_dic/P1421-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1421-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.0108966406228171</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0332138583361443</v>
+        <v>0.03321385833614431</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.04760419888092876</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01528906290516787</v>
+        <v>0.01643741547299513</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00606189653360466</v>
+        <v>0.005988844293733649</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003300862689529399</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01621193484919593</v>
+        <v>0.01638435873617454</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02504703740915218</v>
+        <v>0.02606124503144956</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04999908986132761</v>
+        <v>0.05185612240447396</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05789879412865695</v>
+        <v>0.0552778530095753</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0850684746928949</v>
+        <v>0.08768214787261173</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02512718813694828</v>
+        <v>0.02410803804148066</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03315082660482976</v>
+        <v>0.03167627768985178</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03357708389865161</v>
+        <v>0.03331643936854523</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05651134836654872</v>
+        <v>0.05791428539965902</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05886563506034512</v>
+        <v>0.0603488234395327</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0385777221931692</v>
+        <v>0.03661286439467264</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0304378700759777</v>
+        <v>0.02962453704558322</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0596769885520391</v>
+        <v>0.06027049547848415</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0839614110800045</v>
+        <v>0.08517105616700789</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1203322617132209</v>
+        <v>0.1238466971483321</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1308753617284144</v>
+        <v>0.1255067038031613</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1462539492159577</v>
+        <v>0.1486198363175069</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06182242275545251</v>
+        <v>0.05962559674312672</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07056148077210836</v>
+        <v>0.07074558691113823</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07270087995298191</v>
+        <v>0.07248618710537051</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09278905408046972</v>
+        <v>0.0915008452019368</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002148444391651732</v>
+        <v>0.002155663087702162</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003804897763134622</v>
+        <v>0.00203526984431128</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001723272953820468</v>
+        <v>0.001713723865083528</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04542622412163523</v>
+        <v>0.04564678735239642</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06692174794745798</v>
+        <v>0.06565395222171864</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03127725491405024</v>
+        <v>0.02983725436264807</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02052188600598175</v>
+        <v>0.01979964503018105</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1145563570222566</v>
+        <v>0.1143105858305891</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03650054138671538</v>
+        <v>0.03633412386584269</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01950306113696805</v>
+        <v>0.01979346918863176</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01271139056257012</v>
+        <v>0.01213531707511146</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08663958541890202</v>
+        <v>0.08767722739390206</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01927542120886191</v>
+        <v>0.01818911495806553</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02701692730151484</v>
+        <v>0.02545304453195479</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01704487279348001</v>
+        <v>0.01591054699820217</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09771289490566396</v>
+        <v>0.0972451590946098</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1150742291325632</v>
+        <v>0.114512922592157</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0698709441609732</v>
+        <v>0.07003225476025284</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05267075687621988</v>
+        <v>0.05198850643536324</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1707972657485148</v>
+        <v>0.1690483673312337</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06173923497636036</v>
+        <v>0.0627813875148383</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04120809752507826</v>
+        <v>0.04299484402057602</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03034082661237596</v>
+        <v>0.02969443555474759</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1239234037788714</v>
+        <v>0.126342199793297</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.002933545469683004</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.04796332078319401</v>
+        <v>0.047963320783194</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.04210254401364824</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008288214401837898</v>
+        <v>0.008543828092517346</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005740563825094074</v>
+        <v>0.005765018392607311</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02870095443301086</v>
+        <v>0.0289840400206216</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02415372457725018</v>
+        <v>0.02150514252908032</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02181278544425054</v>
+        <v>0.02330734237639708</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01984337545589219</v>
+        <v>0.02008779086380298</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09957676140528406</v>
+        <v>0.09862854630304864</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01971871994323948</v>
+        <v>0.01841623298781988</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01703189670288495</v>
+        <v>0.01700411872720627</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01146472208142315</v>
+        <v>0.01228530104804806</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07170007971657825</v>
+        <v>0.07049757587086727</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04328560119524874</v>
+        <v>0.04557756481262391</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02961778844614756</v>
+        <v>0.0322148512809915</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01470231092090077</v>
+        <v>0.01591261782243731</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07290422992269703</v>
+        <v>0.07456901485194334</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06974743788922755</v>
+        <v>0.06962466649141309</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06566552864915845</v>
+        <v>0.06777447289979484</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06441796325246403</v>
+        <v>0.06649584524240607</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1611232715581319</v>
+        <v>0.1581005474901647</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04634696724595834</v>
+        <v>0.04423326739059048</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04338517130630518</v>
+        <v>0.04218441951731888</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03655328605610729</v>
+        <v>0.0374905204165616</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1098065516247924</v>
+        <v>0.1106229100257091</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.04792387072985355</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04559464367037197</v>
+        <v>0.04559464367037196</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.005606920989031912</v>
+        <v>0.007359800158918572</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006149450148121081</v>
+        <v>0.006080018879858678</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008116944856091849</v>
+        <v>0.008060976795710202</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009189279597875273</v>
+        <v>0.008896657473645047</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02496935863391236</v>
+        <v>0.02467634997491217</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06377881739687395</v>
+        <v>0.06199472261662999</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05063101022779277</v>
+        <v>0.04914804865470831</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05035955583228947</v>
+        <v>0.05094477097402802</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01838303357067297</v>
+        <v>0.01996749763619414</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04054095164892701</v>
+        <v>0.03801510032838368</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03188858048278043</v>
+        <v>0.03325042715242071</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03463161650736946</v>
+        <v>0.03422943851879157</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03891032746249808</v>
+        <v>0.03795590517867659</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03556555136207841</v>
+        <v>0.03495048722360528</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03635850459291219</v>
+        <v>0.03629234483878743</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03966388397533575</v>
+        <v>0.041130462960287</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06824065750333864</v>
+        <v>0.06645020112387733</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1255061856339246</v>
+        <v>0.1198579652588974</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1085978073803782</v>
+        <v>0.1115331483997085</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09287411669752557</v>
+        <v>0.09142242862573431</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04450002537396958</v>
+        <v>0.04515467863397678</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07553426008151073</v>
+        <v>0.07096402727144126</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06617648906822901</v>
+        <v>0.06637731595916885</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05946960565506747</v>
+        <v>0.05955299180836141</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.02249425971072826</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05013982312673449</v>
+        <v>0.0501398231267345</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.02952316745458518</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004471618907457206</v>
+        <v>0.004489460322018441</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.008574928273093682</v>
+        <v>0.008711243577169927</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02896541805755568</v>
+        <v>0.02715947343075302</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.009882389571136319</v>
+        <v>0.01059857394756878</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06619652231926777</v>
+        <v>0.06782300115326055</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05300643958323982</v>
+        <v>0.05625677662300257</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08971748511896267</v>
+        <v>0.08682151738490219</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0114353437082357</v>
+        <v>0.01167965452092348</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0372591905028949</v>
+        <v>0.03782913340740775</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03611430252443265</v>
+        <v>0.03648770902862604</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06635112587812156</v>
+        <v>0.06586932088804962</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03899707691314373</v>
+        <v>0.0367153923098307</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03706319121071621</v>
+        <v>0.0371885803656016</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04895600941866397</v>
+        <v>0.05376344319654468</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08258536435035485</v>
+        <v>0.08071243403471393</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0646505034619316</v>
+        <v>0.06517357144829361</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1454889743453808</v>
+        <v>0.1480084516947346</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1304514274041588</v>
+        <v>0.1323646624114617</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1470257560439849</v>
+        <v>0.1455856861974995</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04246299627833971</v>
+        <v>0.04387038651027855</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0823787142525596</v>
+        <v>0.08031597004023359</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07953924245622189</v>
+        <v>0.08255436475011803</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1081314830025723</v>
+        <v>0.1078322810716619</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.02188523552279362</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.06264323161104167</v>
+        <v>0.06264323161104166</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.06103755355782463</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0169228936438571</v>
+        <v>0.01670281196247447</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.006900405325182819</v>
+        <v>0.006767823929998005</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.00727754137072878</v>
+        <v>0.007943929019178888</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04291864983180426</v>
+        <v>0.04216351952915126</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03566076501990803</v>
+        <v>0.03837428267902079</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02511478016718535</v>
+        <v>0.02849117295703369</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03489720622957967</v>
+        <v>0.03457054427213507</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1162407268245634</v>
+        <v>0.1158257111324112</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03203005766985255</v>
+        <v>0.03327366244363174</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01950848376915444</v>
+        <v>0.02074571510235207</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02562320923820819</v>
+        <v>0.02507469851068927</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.0838742947288955</v>
+        <v>0.08336909069297911</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06963629049020539</v>
+        <v>0.06583398428605319</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04377423307442078</v>
+        <v>0.04080593072300914</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05152809188784163</v>
+        <v>0.0488179525667166</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.09486285785813507</v>
+        <v>0.09155843435125689</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.09339319506134409</v>
+        <v>0.09485869287347924</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.07804195249965191</v>
+        <v>0.07721758666324419</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.09104426018238057</v>
+        <v>0.09547687466644948</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1898803632285547</v>
+        <v>0.1863517667546334</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06811612587192475</v>
+        <v>0.07006042332509189</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.05092776811275325</v>
+        <v>0.05056007006206666</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.06071313256742985</v>
+        <v>0.06059089688330246</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1285083427167601</v>
+        <v>0.126683559805759</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.009172327753562323</v>
+        <v>0.008961865108155076</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.006379154038265577</v>
+        <v>0.006400597376033616</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01280968272493652</v>
+        <v>0.01164937928448017</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05284045532691613</v>
+        <v>0.05365357821676747</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02559370212352291</v>
+        <v>0.02459169611207572</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02978825367070713</v>
+        <v>0.02983458719466139</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04165715863787321</v>
+        <v>0.0412844599663774</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1460746519988984</v>
+        <v>0.1440196735363617</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02039111687872024</v>
+        <v>0.02019840412975505</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0213919747188714</v>
+        <v>0.02138113765700298</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03054674549774208</v>
+        <v>0.03063955473523677</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.106486114484504</v>
+        <v>0.1067833734443147</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03187410025070937</v>
+        <v>0.03085816720437817</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02471613923472626</v>
+        <v>0.02475726766374003</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03763228522530473</v>
+        <v>0.03846595963586364</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0988246816845471</v>
+        <v>0.1007013246591994</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05543261125275421</v>
+        <v>0.05643513207083031</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06227141594912635</v>
+        <v>0.06290789004909442</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.0795939308794022</v>
+        <v>0.07875060921966734</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1952339785371662</v>
+        <v>0.1956288561656003</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03902486453657815</v>
+        <v>0.03901078938231698</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04092308353628672</v>
+        <v>0.04158745133194486</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05362593207394981</v>
+        <v>0.0531103022528878</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1411502844984363</v>
+        <v>0.141611958378813</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.04026846208225635</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.05197181100959095</v>
+        <v>0.05197181100959096</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.05902627801816942</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02684074898249229</v>
+        <v>0.02674798300253419</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.001313144652157934</v>
+        <v>0.001313529665822268</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.005184576968754273</v>
+        <v>0.005366928796290252</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.007099460945601471</v>
+        <v>0.006539855824742145</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.06000135183481227</v>
+        <v>0.06061242988458531</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02116998524334623</v>
+        <v>0.02196413345388382</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02805387037144587</v>
+        <v>0.02812422652773909</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0390356230249668</v>
+        <v>0.03888084109439693</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0478238516898392</v>
+        <v>0.04726589873918741</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01313081884819315</v>
+        <v>0.01265686846089102</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01891830316809092</v>
+        <v>0.01820829989026454</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.0259581011243647</v>
+        <v>0.02551322313715419</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05469266825787895</v>
+        <v>0.05384132945463939</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01186143613924658</v>
+        <v>0.01174523020790188</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02030722539127197</v>
+        <v>0.02095346867790173</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.0237901458308026</v>
+        <v>0.02334217014873311</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.09954982676427908</v>
+        <v>0.09761211838528711</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04637248353035865</v>
+        <v>0.04650111733663825</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.05589214986752154</v>
+        <v>0.05774924058887596</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.06563785133910344</v>
+        <v>0.06727536756659987</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.07119813430459865</v>
+        <v>0.0722923648171629</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.02690734124402568</v>
+        <v>0.02700705292534281</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.0344436330473124</v>
+        <v>0.03533509848877154</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.04230039608607146</v>
+        <v>0.04206754446908903</v>
       </c>
     </row>
     <row r="28">
@@ -1785,7 +1785,7 @@
         <v>0.03495861104430423</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.08029384148151097</v>
+        <v>0.08029384148151099</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01889535268700726</v>
+        <v>0.01904894691259707</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.008692509128400736</v>
+        <v>0.008708487229741897</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01073295889843619</v>
+        <v>0.01025038830810581</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.03786351220285165</v>
+        <v>0.03871754137461665</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.04971533148514866</v>
+        <v>0.05066411401024312</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.04641144903311164</v>
+        <v>0.04575819345754485</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.04737230835116891</v>
+        <v>0.047861442112493</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1043835923584472</v>
+        <v>0.1042560515920733</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.03635089581225948</v>
+        <v>0.03641570638536167</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.02866467287516117</v>
+        <v>0.02923184381377163</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.03054471936183459</v>
+        <v>0.03086069574819027</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.07435207603476442</v>
+        <v>0.07461281099449839</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02963372077437028</v>
+        <v>0.0299471403282682</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01599258400972419</v>
+        <v>0.01660179312838948</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01914065159788012</v>
+        <v>0.01871196765547217</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.05365030135680382</v>
+        <v>0.05348538036224133</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.06612740437595363</v>
+        <v>0.06651057253294593</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.06183879413671193</v>
+        <v>0.06131481386291485</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.06348332413933093</v>
+        <v>0.0632430416923314</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1227200848699631</v>
+        <v>0.1229930431725637</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.04581452737283314</v>
+        <v>0.04599832066221192</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.03746070802084724</v>
+        <v>0.03757794096337243</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.03985214285191605</v>
+        <v>0.04010267353608451</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.08641582554305552</v>
+        <v>0.08629134331677588</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4174</v>
+        <v>4488</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1787</v>
+        <v>1765</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5169</v>
+        <v>5224</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6533</v>
+        <v>6798</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14362</v>
+        <v>14895</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>16716</v>
+        <v>15959</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>26887</v>
+        <v>27713</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>13414</v>
+        <v>12870</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>19293</v>
+        <v>18435</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>19557</v>
+        <v>19406</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>35879</v>
+        <v>36770</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16071</v>
+        <v>16476</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11370</v>
+        <v>10791</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8941</v>
+        <v>8703</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19028</v>
+        <v>19217</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>21900</v>
+        <v>22216</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>34565</v>
+        <v>35574</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>37784</v>
+        <v>36234</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>46225</v>
+        <v>46973</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>33004</v>
+        <v>31831</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>41066</v>
+        <v>41173</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>42346</v>
+        <v>42221</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>58912</v>
+        <v>58094</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1923</v>
+        <v>1029</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>24060</v>
+        <v>24177</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>33725</v>
+        <v>33086</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>16382</v>
+        <v>15628</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10735</v>
+        <v>10357</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>62443</v>
+        <v>62309</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>36392</v>
+        <v>36226</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>20074</v>
+        <v>20373</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>13038</v>
+        <v>12447</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>93116</v>
+        <v>94231</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9504</v>
+        <v>8969</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13658</v>
+        <v>12867</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8566</v>
+        <v>7996</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>51755</v>
+        <v>51507</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>57992</v>
+        <v>57709</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>36596</v>
+        <v>36680</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27551</v>
+        <v>27194</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>93100</v>
+        <v>92146</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>61555</v>
+        <v>62595</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>42415</v>
+        <v>44254</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>31119</v>
+        <v>30456</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>133186</v>
+        <v>135786</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2643</v>
+        <v>2724</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1860</v>
+        <v>1868</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9019</v>
+        <v>9108</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8101</v>
+        <v>7213</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7439</v>
+        <v>7948</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6674</v>
+        <v>6756</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>35487</v>
+        <v>35149</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12901</v>
+        <v>12049</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>11327</v>
+        <v>11309</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7508</v>
+        <v>8045</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>48085</v>
+        <v>47278</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13801</v>
+        <v>14532</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9598</v>
+        <v>10439</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4684</v>
+        <v>5069</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>22911</v>
+        <v>23434</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23394</v>
+        <v>23353</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>22393</v>
+        <v>23112</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21664</v>
+        <v>22363</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>57421</v>
+        <v>56344</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>30323</v>
+        <v>28940</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>28854</v>
+        <v>28055</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>23938</v>
+        <v>24552</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>73640</v>
+        <v>74188</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2011</v>
+        <v>2640</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2300</v>
+        <v>2274</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3003</v>
+        <v>2982</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3429</v>
+        <v>3320</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9275</v>
+        <v>9166</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>24807</v>
+        <v>24113</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>19609</v>
+        <v>19034</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>21250</v>
+        <v>21497</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>13422</v>
+        <v>14579</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>30930</v>
+        <v>29003</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>24148</v>
+        <v>25179</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>27536</v>
+        <v>27216</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13956</v>
+        <v>13614</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13301</v>
+        <v>13071</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13451</v>
+        <v>13427</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>14800</v>
+        <v>15348</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>25348</v>
+        <v>24683</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>48816</v>
+        <v>46619</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>42058</v>
+        <v>43195</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>39189</v>
+        <v>38577</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>32491</v>
+        <v>32969</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>57628</v>
+        <v>54141</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>50112</v>
+        <v>50264</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>47285</v>
+        <v>47351</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1811</v>
+        <v>1840</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5957</v>
+        <v>5586</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2052</v>
+        <v>2201</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>14536</v>
+        <v>14893</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>11587</v>
+        <v>12297</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>20350</v>
+        <v>19693</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>16104</v>
+        <v>16350</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>15522</v>
+        <v>15683</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>28696</v>
+        <v>28488</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7928</v>
+        <v>7465</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7880</v>
+        <v>7907</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>10341</v>
+        <v>11356</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>16985</v>
+        <v>16600</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>13426</v>
+        <v>13534</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>31948</v>
+        <v>32501</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>28515</v>
+        <v>28933</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>33349</v>
+        <v>33022</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>17451</v>
+        <v>18030</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>35605</v>
+        <v>34713</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>34187</v>
+        <v>35483</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>46766</v>
+        <v>46636</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4583</v>
+        <v>4523</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1891</v>
+        <v>1854</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1915</v>
+        <v>2090</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>11618</v>
+        <v>11414</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>9919</v>
+        <v>10674</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>6984</v>
+        <v>7923</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>9531</v>
+        <v>9442</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>30583</v>
+        <v>30474</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>17583</v>
+        <v>18266</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>10770</v>
+        <v>11453</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>13740</v>
+        <v>13446</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>44773</v>
+        <v>44503</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>18858</v>
+        <v>17829</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>11993</v>
+        <v>11180</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>13558</v>
+        <v>12845</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>25680</v>
+        <v>24786</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>25977</v>
+        <v>26384</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>21703</v>
+        <v>21474</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>24866</v>
+        <v>26076</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>49957</v>
+        <v>49029</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>37393</v>
+        <v>38460</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>28116</v>
+        <v>27913</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>32557</v>
+        <v>32491</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>68599</v>
+        <v>67624</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5641</v>
+        <v>5512</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4228</v>
+        <v>4242</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>8410</v>
+        <v>7648</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>37925</v>
+        <v>38508</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>16334</v>
+        <v>15695</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>20669</v>
+        <v>20701</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>28797</v>
+        <v>28540</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>112363</v>
+        <v>110782</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>25555</v>
+        <v>25314</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>29021</v>
+        <v>29007</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>41172</v>
+        <v>41298</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>158338</v>
+        <v>158780</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>19603</v>
+        <v>18979</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>16382</v>
+        <v>16409</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>24708</v>
+        <v>25255</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>70929</v>
+        <v>72276</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>35378</v>
+        <v>36018</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>43207</v>
+        <v>43649</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>55023</v>
+        <v>54440</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>150177</v>
+        <v>150481</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>48908</v>
+        <v>48890</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>55518</v>
+        <v>56419</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>72280</v>
+        <v>71585</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>209882</v>
+        <v>210568</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>19964</v>
+        <v>19895</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>1022</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>4037</v>
+        <v>4179</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>5666</v>
+        <v>5219</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>47012</v>
+        <v>47491</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>17414</v>
+        <v>18067</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>23177</v>
+        <v>23235</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>32423</v>
+        <v>32295</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>73042</v>
+        <v>72189</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>21018</v>
+        <v>20259</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>30359</v>
+        <v>29220</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>42277</v>
+        <v>41553</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>40680</v>
+        <v>40047</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>9229</v>
+        <v>9139</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>15811</v>
+        <v>16314</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>18986</v>
+        <v>18629</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>77998</v>
+        <v>76480</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>38145</v>
+        <v>38251</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>46176</v>
+        <v>47711</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>54519</v>
+        <v>55880</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>108741</v>
+        <v>110413</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>43069</v>
+        <v>43229</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>55273</v>
+        <v>56704</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>68894</v>
+        <v>68515</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>61911</v>
+        <v>62415</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>29778</v>
+        <v>29833</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>36431</v>
+        <v>34793</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>133585</v>
+        <v>136598</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>167998</v>
+        <v>171204</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>164997</v>
+        <v>162675</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>167913</v>
+        <v>169647</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>389271</v>
+        <v>388796</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>241942</v>
+        <v>242374</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>200104</v>
+        <v>204063</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>211947</v>
+        <v>214139</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>539596</v>
+        <v>541488</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>97096</v>
+        <v>98123</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>54787</v>
+        <v>56874</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>64970</v>
+        <v>63515</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>189282</v>
+        <v>188700</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>223458</v>
+        <v>224752</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>219843</v>
+        <v>217980</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>225019</v>
+        <v>224168</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>457652</v>
+        <v>458670</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>304930</v>
+        <v>306153</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>261507</v>
+        <v>262326</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>276530</v>
+        <v>278268</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>627146</v>
+        <v>626243</v>
       </c>
     </row>
     <row r="40">
